--- a/data/DMM  Governance/DMM  Governance20190701.xlsx
+++ b/data/DMM  Governance/DMM  Governance20190701.xlsx
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101">
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="152">
